--- a/Excel File/01-13_hawks.xlsx
+++ b/Excel File/01-13_hawks.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sishihao/Desktop/WPI/17Spring/CS573/final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -156,12 +160,18 @@
   </si>
   <si>
     <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Haw</t>
+  </si>
+  <si>
+    <t>Bos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -187,6 +197,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -244,6 +255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="A1:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -567,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="6">
         <v>24</v>
       </c>
@@ -614,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="6">
         <v>8</v>
       </c>
@@ -661,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -708,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>17</v>
       </c>
@@ -755,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="6">
         <v>25</v>
       </c>
@@ -802,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="6">
         <v>95</v>
       </c>
@@ -849,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -896,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>34</v>
       </c>
@@ -943,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="6">
         <v>43</v>
       </c>
@@ -1037,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="6">
         <v>31</v>
       </c>
@@ -1084,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>33</v>
@@ -1152,7 +1166,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1191,7 +1205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>99</v>
       </c>
@@ -1238,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>42</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>90</v>
       </c>
@@ -1332,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1379,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1473,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>30</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>41</v>
       </c>
@@ -1614,7 +1628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -1661,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1682,7 +1696,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1748,4 +1762,1083 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2:D4)</f>
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:R2" si="0">SUM(E2:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>3</v>
+      </c>
+      <c r="R3" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <f>SUM(D6:D7)</f>
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:R4" si="1">SUM(E6:E7)</f>
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <f>SUM(D8:D11)</f>
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:R5" si="2">SUM(E8:E11)</f>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <f>SUM(D12:D13)</f>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:R6" si="3">SUM(E12:E13)</f>
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <f>SUM(N14:N15)</f>
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:R8" si="4">SUM(O14:O15)</f>
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>SUM(N16:N17)</f>
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:R9" si="5">SUM(O16:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <f>SUM(N19:N21)</f>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:R11" si="6">SUM(O19:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f>SUM(N22:N23)</f>
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:R12" si="7">SUM(O22:O23)</f>
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="1">
+        <v>8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1">
+        <v>9</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" x14ac:dyDescent="0.5">
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J13">
+    <sortState ref="A2:J23">
+      <sortCondition ref="C1:C13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>